--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H2">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I2">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J2">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>2981.890590056409</v>
+        <v>759.5229835758565</v>
       </c>
       <c r="R2">
-        <v>26837.01531050768</v>
+        <v>6835.706852182709</v>
       </c>
       <c r="S2">
-        <v>0.4314642966417993</v>
+        <v>0.3721644351821201</v>
       </c>
       <c r="T2">
-        <v>0.4314642966417993</v>
+        <v>0.3721644351821202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H3">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I3">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J3">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>1499.593354452362</v>
+        <v>353.9246653258395</v>
       </c>
       <c r="R3">
-        <v>13496.34019007126</v>
+        <v>3185.321987932556</v>
       </c>
       <c r="S3">
-        <v>0.2169834782285774</v>
+        <v>0.1734222347661935</v>
       </c>
       <c r="T3">
-        <v>0.2169834782285774</v>
+        <v>0.1734222347661936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H4">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I4">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J4">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>485.3302795868644</v>
+        <v>99.16036823550611</v>
       </c>
       <c r="R4">
-        <v>4367.97251628178</v>
+        <v>892.443314119555</v>
       </c>
       <c r="S4">
-        <v>0.07022480583935609</v>
+        <v>0.04858834193940154</v>
       </c>
       <c r="T4">
-        <v>0.07022480583935609</v>
+        <v>0.04858834193940154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H5">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I5">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J5">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>1435.9174287959</v>
+        <v>357.1246783386986</v>
       </c>
       <c r="R5">
-        <v>12923.2568591631</v>
+        <v>3214.122105048287</v>
       </c>
       <c r="S5">
-        <v>0.2077698979020567</v>
+        <v>0.1749902334459691</v>
       </c>
       <c r="T5">
-        <v>0.2077698979020567</v>
+        <v>0.1749902334459691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.709232</v>
       </c>
       <c r="I6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>67.25657699484266</v>
+        <v>72.58496190037867</v>
       </c>
       <c r="R6">
-        <v>605.309192953584</v>
+        <v>653.264657103408</v>
       </c>
       <c r="S6">
-        <v>0.009731682236894499</v>
+        <v>0.0355664567531447</v>
       </c>
       <c r="T6">
-        <v>0.009731682236894499</v>
+        <v>0.03556645675314471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.709232</v>
       </c>
       <c r="I7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
         <v>33.82334557847467</v>
@@ -883,10 +883,10 @@
         <v>304.410110206272</v>
       </c>
       <c r="S7">
-        <v>0.004894064879091697</v>
+        <v>0.01657335798308398</v>
       </c>
       <c r="T7">
-        <v>0.004894064879091696</v>
+        <v>0.01657335798308398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.709232</v>
       </c>
       <c r="I8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>10.94663010970667</v>
+        <v>9.476410465573334</v>
       </c>
       <c r="R8">
-        <v>98.51967098736</v>
+        <v>85.28769419016</v>
       </c>
       <c r="S8">
-        <v>0.001583921313757251</v>
+        <v>0.00464341833590056</v>
       </c>
       <c r="T8">
-        <v>0.00158392131375725</v>
+        <v>0.00464341833590056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.709232</v>
       </c>
       <c r="I9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>32.38713433353067</v>
+        <v>34.12915965868267</v>
       </c>
       <c r="R9">
-        <v>291.484209001776</v>
+        <v>307.1624369281441</v>
       </c>
       <c r="S9">
-        <v>0.004686252467497787</v>
+        <v>0.01672320614685582</v>
       </c>
       <c r="T9">
-        <v>0.004686252467497786</v>
+        <v>0.01672320614685582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H10">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>139.3847574436614</v>
+        <v>145.6423202432413</v>
       </c>
       <c r="R10">
-        <v>1254.462816992953</v>
+        <v>1310.780882189172</v>
       </c>
       <c r="S10">
-        <v>0.02016826054368397</v>
+        <v>0.07136438662692017</v>
       </c>
       <c r="T10">
-        <v>0.02016826054368397</v>
+        <v>0.07136438662692018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H11">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>70.09662147614712</v>
+        <v>67.86681978560532</v>
       </c>
       <c r="R11">
-        <v>630.8695932853241</v>
+        <v>610.8013780704479</v>
       </c>
       <c r="S11">
-        <v>0.0101426221280641</v>
+        <v>0.03325457846476605</v>
       </c>
       <c r="T11">
-        <v>0.0101426221280641</v>
+        <v>0.03325457846476606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H12">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>22.68615874970778</v>
+        <v>19.01449517432667</v>
       </c>
       <c r="R12">
-        <v>204.17542874737</v>
+        <v>171.13045656894</v>
       </c>
       <c r="S12">
-        <v>0.003282570984021819</v>
+        <v>0.009317056902623241</v>
       </c>
       <c r="T12">
-        <v>0.003282570984021818</v>
+        <v>0.009317056902623241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H13">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>67.12016973032411</v>
+        <v>68.48043824097734</v>
       </c>
       <c r="R13">
-        <v>604.081527572917</v>
+        <v>616.3239441687961</v>
       </c>
       <c r="S13">
-        <v>0.009711944804327861</v>
+        <v>0.0335552500320512</v>
       </c>
       <c r="T13">
-        <v>0.00971194480432786</v>
+        <v>0.03355525003205122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H14">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>30.11430438328678</v>
+        <v>9.71372616481011</v>
       </c>
       <c r="R14">
-        <v>271.028739449581</v>
+        <v>87.423535483291</v>
       </c>
       <c r="S14">
-        <v>0.004357385613985953</v>
+        <v>0.004759702457745681</v>
       </c>
       <c r="T14">
-        <v>0.004357385613985954</v>
+        <v>0.004759702457745682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H15">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>15.14448949861645</v>
+        <v>4.52642955682711</v>
       </c>
       <c r="R15">
-        <v>136.300405487548</v>
+        <v>40.737866011444</v>
       </c>
       <c r="S15">
-        <v>0.00219133006801435</v>
+        <v>0.002217939596083297</v>
       </c>
       <c r="T15">
-        <v>0.00219133006801435</v>
+        <v>0.002217939596083297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H16">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>4.901381631721112</v>
+        <v>1.268186327827222</v>
       </c>
       <c r="R16">
-        <v>44.11243468549</v>
+        <v>11.413676950445</v>
       </c>
       <c r="S16">
-        <v>0.0007092048197058693</v>
+        <v>0.0006214082504514063</v>
       </c>
       <c r="T16">
-        <v>0.0007092048197058693</v>
+        <v>0.0006214082504514063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H17">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>14.50142224004544</v>
+        <v>4.567355309968112</v>
       </c>
       <c r="R17">
-        <v>130.512800160409</v>
+        <v>41.10619778971301</v>
       </c>
       <c r="S17">
-        <v>0.002098281529165224</v>
+        <v>0.002237993116689632</v>
       </c>
       <c r="T17">
-        <v>0.002098281529165224</v>
+        <v>0.002237993116689633</v>
       </c>
     </row>
   </sheetData>
